--- a/로스트아크/데이터테이블/(수정중)Skill-Effect_Table.xlsx
+++ b/로스트아크/데이터테이블/(수정중)Skill-Effect_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9940581-83F4-4A0F-A457-76342C648428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A78BA9-B2AA-471A-ABA1-EC63737EDA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -54,7 +54,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>효과 발동 트리거:</t>
+          <t># 효과 발동 트리거</t>
         </r>
         <r>
           <rPr>
@@ -333,9 +333,21 @@
           <t xml:space="preserve"> : 영역 내 위치하는 동안 
 </t>
         </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>등등</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{06D51FCE-9950-4894-A80D-C240EF683389}">
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{7696DEF7-E0DD-4F10-BD2E-ED79A37082CA}">
       <text>
         <r>
           <rPr>
@@ -347,7 +359,312 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>효과 적용 영역:
+          <t># 효과 발동 트리거</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+ON_HIT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 공격 적중 시
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ON_CRIT_HIT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 치명타 공격 적중 시
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ON_HIT_RECEIVED</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 피격 시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+ON_SKILL_CAST</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 스킬 시전 시
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>WHILE_SKILL_CAST</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 스킬 시전 중</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+ON_SKILL_USE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 스킬 사용 시 (=시전 완료 시)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ON_DEATH</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 사망 시
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ON_KILL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 대상 처치 시 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ON_AREA_ENTER</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 효과 적용 영역 내 위치 시
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ON_AREA_EXIT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 영역 밖으로 나갈 시
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>WHILE_IN_AREA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 영역 내 위치하는 동안 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>등등</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{06D51FCE-9950-4894-A80D-C240EF683389}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t># 효과 적용 영역
 HIT_TARGET</t>
         </r>
         <r>
@@ -506,15 +823,247 @@
           <t xml:space="preserve"> : 삼각형 범위
 </t>
         </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{903C7CAD-2820-49DB-B8BF-46C6C9FB0F0F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t># 효과의 parameter</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>hit_cnt</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 타격 횟수
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>hit_interval</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 타격 간격
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>stagger</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 무력화 수치
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>max_stack</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 최대 중첩 수
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>dispellable</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 해제 가능 여부 *</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <u/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>기본값 = 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(해제가능)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>obj_id</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> : 발사체 오브젝트 id</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등등</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -526,7 +1075,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -564,58 +1113,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>param_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과의 지속 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>skill_id</t>
+  </si>
+  <si>
+    <t>effect_id</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
     <t>param_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>param_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과의 지속 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과가 적용되는 parameter의 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>skill_id</t>
-  </si>
-  <si>
-    <t>effect_id</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>param_type</t>
-  </si>
-  <si>
-    <t>param_value</t>
   </si>
   <si>
     <t>연가창식: 은하유성탄</t>
@@ -659,10 +1200,6 @@
   </si>
   <si>
     <t>[5315,1,21]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과 적용 영역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -821,6 +1358,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>area_type</t>
+  </si>
+  <si>
+    <t>area_value</t>
+  </si>
+  <si>
+    <t>[10633,2,0.2,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[damage,hit_cnt,hit_interval,stagger]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[damage,hit_cnt,stagger]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6910,2,0.2,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6377,2,0.2,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발 피해 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발 피해 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발 피해 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MELEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[obj_id,spawn_x,spawn_y]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[obj_id,weapon_x,weapon_y]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIT_TARGET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넉백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 이상(날려보내기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[KNOCKBACK]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과 적용 영역 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(메모 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과 발동 트리거 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(메모 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigger_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigger_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리거 파라미터 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -831,155 +1496,67 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>효과의 parameter</t>
+      <t xml:space="preserve">효과를 구성하는 매개 변수 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>(메모 참고)</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>예시) hit_cnt : 타격 횟수 // hit_interval : 타격 간격 // 
-max_stack : 최대 중첩 개수 // dispellable : 해제 가능 여부 // …</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area_type</t>
-  </si>
-  <si>
-    <t>area_value</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과 발동 트리거 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ON_SKILL_CAST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[10633,2,0.2,10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[damage,hit_cnt,hit_interval,stagger]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[damage,hit_cnt,stagger]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6910,2,0.2,10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6377,2,0.2,10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time_offset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">지연 시간 - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>트리거 발동 (time_offset)초 이후에 효과 적용</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭발 피해 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체 피해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭발 피해 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭발 피해 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MELEE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[obj_id,spawn_x,spawn_y]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[obj_id,weapon_x,weapon_y]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OBJECT_OVERLAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIT_TARGET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넉백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격 이상(날려보내기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ON_EXPLOSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INFLICT_KNOCKBACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[KNOCKBACK]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매개 변수 값 (인자 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[name,time_offset]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ON_SKILL_CAST,0.3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[name]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[OBJECT_OVERLAP]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ON_EXPLOSION]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ON_EXPLOSION,0.4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ON_EXPLOSION,0.8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ON_HIT,INFLICT_KNOCKBACK]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ON_SKILL_CAST]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ON_OBJECT_OVERLAP]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체(창) 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -992,7 +1569,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1097,7 +1674,64 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1" tint="0.499984740745262"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1399,7 +2033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1532,6 +2166,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1541,8 +2178,8 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1866,10 +2503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:G85"/>
+  <dimension ref="B1:G86"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1886,24 +2523,24 @@
   <sheetData>
     <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="G3" s="14"/>
     </row>
@@ -1912,13 +2549,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4" s="14"/>
     </row>
@@ -1927,13 +2564,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G5" s="14"/>
     </row>
@@ -1951,7 +2588,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G6" s="14"/>
     </row>
@@ -1969,7 +2606,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G7" s="14"/>
     </row>
@@ -1987,130 +2624,111 @@
         <v>3</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C9" s="43">
-        <v>4</v>
-      </c>
+      <c r="C9" s="43"/>
       <c r="D9" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C10" s="43">
-        <v>5</v>
-      </c>
+      <c r="C10" s="43"/>
       <c r="D10" s="28" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E10" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C11" s="43"/>
+      <c r="D11" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C12" s="43"/>
+      <c r="D12" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C11" s="43">
-        <v>6</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="31" t="s">
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C13" s="43"/>
+      <c r="D13" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C12" s="43">
-        <v>7</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="29" t="s">
+      <c r="F13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C14" s="43"/>
+      <c r="D14" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C15" s="43"/>
+      <c r="D15" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C13" s="43">
-        <v>8</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="2:7" ht="37.200000000000003" x14ac:dyDescent="0.4">
-      <c r="C14" s="43">
+      <c r="F15" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C16" s="43"/>
+      <c r="D16" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C15" s="43">
-        <v>10</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="31" t="s">
+      <c r="E16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="24">
-        <v>11</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>50</v>
+      <c r="F16" s="31" t="s">
+        <v>76</v>
       </c>
       <c r="G16" s="14"/>
     </row>
@@ -2118,32 +2736,48 @@
       <c r="B17" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="24">
-        <v>12</v>
-      </c>
+      <c r="C17" s="24"/>
       <c r="D17" s="25" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C24" s="1"/>
-      <c r="D24" s="4"/>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C25" s="1"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="48"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C26" s="1"/>
@@ -2324,6 +2958,9 @@
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C86" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2338,10 +2975,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2350,87 +2987,95 @@
     <col min="3" max="3" width="9" style="5" customWidth="1"/>
     <col min="4" max="4" width="12.8984375" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.59765625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="24.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.5" style="37" customWidth="1"/>
-    <col min="11" max="11" width="32.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15.69921875" style="8" customWidth="1"/>
-    <col min="16" max="18" width="15.69921875" style="9" customWidth="1"/>
-    <col min="19" max="20" width="15.69921875" style="8" customWidth="1"/>
-    <col min="21" max="21" width="18.69921875" style="8" customWidth="1"/>
-    <col min="22" max="25" width="15.69921875" style="9" customWidth="1"/>
-    <col min="26" max="29" width="18.69921875" style="8" customWidth="1"/>
-    <col min="30" max="16384" width="8.796875" style="4"/>
+    <col min="6" max="6" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.09765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" style="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.5" style="37" customWidth="1"/>
+    <col min="13" max="13" width="32.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24" style="37" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="15.69921875" style="8" customWidth="1"/>
+    <col min="18" max="20" width="15.69921875" style="9" customWidth="1"/>
+    <col min="21" max="22" width="15.69921875" style="8" customWidth="1"/>
+    <col min="23" max="23" width="18.69921875" style="8" customWidth="1"/>
+    <col min="24" max="27" width="15.69921875" style="9" customWidth="1"/>
+    <col min="28" max="31" width="18.69921875" style="8" customWidth="1"/>
+    <col min="32" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="K1" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="36" t="s">
+      <c r="N1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="O1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="1"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C2" s="5">
         <v>100</v>
@@ -2439,50 +3084,56 @@
         <v>100000</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="37">
+        <v>85</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="37">
         <v>0.3</v>
       </c>
-      <c r="H2" s="37">
+      <c r="J2" s="37">
         <v>1</v>
       </c>
-      <c r="I2" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="K2" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="O2" s="1"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
       <c r="R2" s="3"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A3" s="40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1">
         <v>100000</v>
@@ -2491,47 +3142,53 @@
         <v>1000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="37">
+        <v>86</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="37">
         <v>0</v>
       </c>
-      <c r="H3" s="37">
+      <c r="J3" s="37">
         <v>0</v>
       </c>
-      <c r="I3" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="K3" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="O3" s="1"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A4" s="40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1">
         <v>100000</v>
@@ -2540,47 +3197,53 @@
         <v>1000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="37">
+        <v>81</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="37">
         <v>0</v>
       </c>
-      <c r="H4" s="37">
+      <c r="J4" s="37">
         <v>0.4</v>
       </c>
-      <c r="I4" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="K4" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="O4" s="1"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A5" s="40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1">
         <v>100000</v>
@@ -2589,47 +3252,53 @@
         <v>1000</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="37">
+        <v>81</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="37">
         <v>0.4</v>
       </c>
-      <c r="H5" s="37">
+      <c r="J5" s="37">
         <v>0.4</v>
       </c>
-      <c r="I5" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="K5" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="O5" s="1"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A6" s="40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1">
         <v>100000</v>
@@ -2638,338 +3307,360 @@
         <v>1000</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="37">
+        <v>81</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="37">
         <v>0.8</v>
       </c>
-      <c r="H6" s="37">
+      <c r="J6" s="37">
         <v>0.4</v>
       </c>
-      <c r="I6" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="K6" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="O6" s="1"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A7" s="40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1">
         <v>100000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="37">
+      <c r="H7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="37">
         <v>0</v>
       </c>
-      <c r="H7" s="37">
+      <c r="J7" s="37">
         <v>0</v>
       </c>
-      <c r="I7" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="K7" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="O7" s="1"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
       <c r="U7" s="1"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
       <c r="D8" s="5"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
       <c r="D9" s="5"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
       <c r="D10" s="5"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
       <c r="D11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="1"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-    </row>
-    <row r="12" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+    </row>
+    <row r="12" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="41"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
       <c r="L12" s="37"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
       <c r="D13" s="5"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-    </row>
-    <row r="15" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="15" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="5"/>
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="37"/>
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
       <c r="R15" s="3"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-    </row>
-    <row r="16" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+    </row>
+    <row r="16" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="37"/>
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
       <c r="L16" s="37"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
       <c r="D17" s="5"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-    </row>
-    <row r="18" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+    </row>
+    <row r="18" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="5"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="37"/>
       <c r="J18" s="37"/>
       <c r="K18" s="37"/>
       <c r="L18" s="37"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
       <c r="R18" s="3"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/(수정중)Skill-Effect_Table.xlsx
+++ b/로스트아크/데이터테이블/(수정중)Skill-Effect_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A78BA9-B2AA-471A-ABA1-EC63737EDA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D38F2A0-281C-48F2-ACA2-54100E9F6D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -347,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{7696DEF7-E0DD-4F10-BD2E-ED79A37082CA}">
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{06D51FCE-9950-4894-A80D-C240EF683389}">
       <text>
         <r>
           <rPr>
@@ -359,18 +359,19 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t># 효과 발동 트리거</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t># 효과 적용 영역
+DEFAULT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 기본값
 </t>
         </r>
         <r>
@@ -383,19 +384,18 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">
-ON_HIT</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 공격 적중 시
+          <t>MELEE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 근접 (무기 범위)
 </t>
         </r>
         <r>
@@ -408,18 +408,18 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>ON_CRIT_HIT</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 치명타 공격 적중 시
+          <t>PROJECTILE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 발사체
 </t>
         </r>
         <r>
@@ -432,263 +432,6 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>ON_HIT_RECEIVED</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 피격 시</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-ON_SKILL_CAST</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 스킬 시전 시
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>WHILE_SKILL_CAST</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 스킬 시전 중</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-ON_SKILL_USE</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 스킬 사용 시 (=시전 완료 시)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>ON_DEATH</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 사망 시
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>ON_KILL</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 대상 처치 시 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>ON_AREA_ENTER</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 효과 적용 영역 내 위치 시
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>ON_AREA_EXIT</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 영역 밖으로 나갈 시
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>WHILE_IN_AREA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 영역 내 위치하는 동안 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>등등</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{06D51FCE-9950-4894-A80D-C240EF683389}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t># 효과 적용 영역
-HIT_TARGET</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 공격 적중 대상
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
           <t>AROUND</t>
         </r>
         <r>
@@ -701,54 +444,6 @@
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> : 캐릭터 주변 대상 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>MELEE</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 근접
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">PROJECTILE </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">: 발사체
 </t>
         </r>
         <r>
@@ -1075,7 +770,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1364,27 +1059,7 @@
     <t>area_value</t>
   </si>
   <si>
-    <t>[10633,2,0.2,10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[damage,hit_cnt,hit_interval,stagger]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[damage,hit_cnt,stagger]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6910,2,0.2,10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6377,2,0.2,10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time_offset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1471,18 +1146,6 @@
       </rPr>
       <t>(메모 참고)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trigger_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trigger_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트리거 파라미터 값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1516,47 +1179,112 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[name,time_offset]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ON_SKILL_CAST,0.3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[name]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[OBJECT_OVERLAP]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[ON_EXPLOSION]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[ON_EXPLOSION,0.4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ON_EXPLOSION,0.8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ON_HIT,INFLICT_KNOCKBACK]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ON_SKILL_CAST]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[ON_OBJECT_OVERLAP]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>투사체(창) 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[INFLICT_KNOCKBACK,ON_HIT]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[OJBECT_INSTANCE]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6377,2,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6910,2,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10633,2,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 적용 딜레이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 적용 영역(area_type) 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영역을 따로 지정할 필요가 없는 경우에 사용 ex) 공격에 적중한 대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AROUND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변 대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 주변 일정 거리 내의 대상에게 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* area_value를 간략하게 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로 표현</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v[0] : 거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area_center_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 적용 영역의 기준점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1738,7 +1466,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1787,6 +1515,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -2033,7 +1767,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2169,6 +1903,9 @@
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2179,6 +1916,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2189,10 +1938,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFD5"/>
       <color rgb="FFFFFFC5"/>
       <color rgb="FFF9FAFD"/>
       <color rgb="FFD7DFF1"/>
-      <color rgb="FFFFFFD5"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2204,6 +1953,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>331692</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>367551</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>50490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA1F0770-C2C6-40C9-B3F1-13755C16CEC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="905433" y="5737412"/>
+          <a:ext cx="2178424" cy="1054537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2505,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:G86"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2516,18 +2320,18 @@
     <col min="3" max="3" width="5.69921875" style="10" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.796875" style="45" customWidth="1"/>
     <col min="7" max="7" width="8.69921875" style="4" customWidth="1"/>
     <col min="8" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="11" t="s">
@@ -2637,59 +2441,59 @@
         <v>15</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C10" s="43"/>
       <c r="D10" s="28" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G10" s="14"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C11" s="43"/>
       <c r="D11" s="28" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C12" s="43"/>
       <c r="D12" s="28" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C13" s="43"/>
       <c r="D13" s="28" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="G13" s="14"/>
     </row>
@@ -2709,13 +2513,13 @@
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C15" s="43"/>
       <c r="D15" s="28" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G15" s="14"/>
     </row>
@@ -2728,7 +2532,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G16" s="14"/>
     </row>
@@ -2771,34 +2575,83 @@
       <c r="F19" s="35"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
+      <c r="E22" s="45"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C23" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C24" s="51">
+        <v>1</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="53" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C25" s="1"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="48"/>
+      <c r="E25" s="45"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C26" s="1"/>
+      <c r="C26" s="51">
+        <v>2</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="53" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C27" s="1"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="45" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C28" s="1"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C29" s="1"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C30" s="1"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C31" s="1"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C32" s="1"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C33" s="1"/>
@@ -2963,49 +2816,50 @@
       <c r="C86" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C27:E32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:AE18"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="18.796875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="5" customWidth="1"/>
     <col min="4" max="4" width="12.8984375" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.59765625" style="5" customWidth="1"/>
     <col min="6" max="6" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.09765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" style="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.5" style="37" customWidth="1"/>
-    <col min="13" max="13" width="32.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24" style="37" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="15.69921875" style="8" customWidth="1"/>
-    <col min="18" max="20" width="15.69921875" style="9" customWidth="1"/>
-    <col min="21" max="22" width="15.69921875" style="8" customWidth="1"/>
-    <col min="23" max="23" width="18.69921875" style="8" customWidth="1"/>
-    <col min="24" max="27" width="15.69921875" style="9" customWidth="1"/>
-    <col min="28" max="31" width="18.69921875" style="8" customWidth="1"/>
-    <col min="32" max="16384" width="8.796875" style="4"/>
+    <col min="7" max="7" width="10.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.5" style="37" customWidth="1"/>
+    <col min="11" max="11" width="32.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.69921875" style="8" customWidth="1"/>
+    <col min="16" max="18" width="15.69921875" style="9" customWidth="1"/>
+    <col min="19" max="20" width="15.69921875" style="8" customWidth="1"/>
+    <col min="21" max="21" width="18.69921875" style="8" customWidth="1"/>
+    <col min="22" max="25" width="15.69921875" style="9" customWidth="1"/>
+    <col min="26" max="29" width="18.69921875" style="8" customWidth="1"/>
+    <col min="30" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
         <v>26</v>
       </c>
@@ -3024,116 +2878,107 @@
       <c r="F1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>73</v>
+      <c r="G1" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C2" s="5">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="D2" s="1">
         <v>100000</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="37">
+        <v>73</v>
+      </c>
+      <c r="G2" s="37">
+        <v>0</v>
+      </c>
+      <c r="H2" s="37">
         <v>1</v>
       </c>
-      <c r="K2" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="I2" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A3" s="40" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10001</v>
       </c>
       <c r="D3" s="1">
         <v>100000</v>
@@ -3142,53 +2987,50 @@
         <v>1000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="37">
+        <v>70</v>
+      </c>
+      <c r="G3" s="37">
         <v>0</v>
       </c>
-      <c r="J3" s="37">
+      <c r="H3" s="37">
         <v>0</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="I3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A4" s="40" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10002</v>
       </c>
       <c r="D4" s="1">
         <v>100000</v>
@@ -3197,53 +3039,50 @@
         <v>1000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="37">
+        <v>69</v>
+      </c>
+      <c r="G4" s="37">
         <v>0</v>
       </c>
-      <c r="J4" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="K4" s="37" t="s">
+      <c r="H4" s="37">
+        <v>0</v>
+      </c>
+      <c r="I4" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="L4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A5" s="40" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="C5" s="5">
+        <v>10003</v>
       </c>
       <c r="D5" s="1">
         <v>100000</v>
@@ -3252,53 +3091,50 @@
         <v>1000</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="37">
+        <v>69</v>
+      </c>
+      <c r="G5" s="37">
         <v>0.4</v>
       </c>
-      <c r="J5" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="K5" s="37" t="s">
+      <c r="H5" s="37">
+        <v>0</v>
+      </c>
+      <c r="I5" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="K5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A6" s="40" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10004</v>
       </c>
       <c r="D6" s="1">
         <v>100000</v>
@@ -3307,360 +3143,341 @@
         <v>1000</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="37">
+        <v>69</v>
+      </c>
+      <c r="G6" s="37">
         <v>0.8</v>
       </c>
-      <c r="J6" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="K6" s="37" t="s">
+      <c r="H6" s="37">
+        <v>0</v>
+      </c>
+      <c r="I6" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="K6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A7" s="40" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10005</v>
       </c>
       <c r="D7" s="1">
         <v>100000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="37">
+        <v>72</v>
+      </c>
+      <c r="G7" s="37">
         <v>0</v>
       </c>
-      <c r="J7" s="37">
+      <c r="H7" s="37">
         <v>0</v>
       </c>
-      <c r="K7" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="I7" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="L7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
       <c r="D8" s="5"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
       <c r="D9" s="5"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
       <c r="D10" s="5"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
       <c r="D11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-    </row>
-    <row r="12" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
       <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
       <c r="D13" s="5"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-    </row>
-    <row r="15" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="5"/>
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="37"/>
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-    </row>
-    <row r="16" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="37"/>
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
       <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
       <c r="D17" s="5"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-    </row>
-    <row r="18" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="5"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="37"/>
       <c r="J18" s="37"/>
       <c r="K18" s="37"/>
       <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/(수정중)Skill-Effect_Table.xlsx
+++ b/로스트아크/데이터테이블/(수정중)Skill-Effect_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D38F2A0-281C-48F2-ACA2-54100E9F6D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7F44CE-1E06-4929-A97D-C3952D3372CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -347,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{06D51FCE-9950-4894-A80D-C240EF683389}">
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{3FB097E6-113A-4842-90DD-E55AA8362305}">
       <text>
         <r>
           <rPr>
@@ -424,26 +424,14 @@
         </r>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>AROUND</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 캐릭터 주변 대상 
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -520,7 +508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{903C7CAD-2820-49DB-B8BF-46C6C9FB0F0F}">
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{903C7CAD-2820-49DB-B8BF-46C6C9FB0F0F}">
       <text>
         <r>
           <rPr>
@@ -770,7 +758,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -792,10 +780,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skill-Effect Mapping Table Schema</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skill_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -812,18 +796,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과의 지속 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -845,9 +817,6 @@
     <t>effect_id</t>
   </si>
   <si>
-    <t>duration</t>
-  </si>
-  <si>
     <t>param_type</t>
   </si>
   <si>
@@ -898,15 +867,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영역 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>area_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area_value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1056,9 +1017,6 @@
     <t>area_type</t>
   </si>
   <si>
-    <t>area_value</t>
-  </si>
-  <si>
     <t>[damage,hit_cnt,stagger]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1087,18 +1045,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[obj_id,spawn_x,spawn_y]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[obj_id,weapon_x,weapon_y]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIT_TARGET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>넉백</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1108,10 +1054,6 @@
   </si>
   <si>
     <t>[KNOCKBACK]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>param_key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1149,6 +1091,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[ON_EXPLOSION]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ON_OBJECT_OVERLAP]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체(창) 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[INFLICT_KNOCKBACK,ON_HIT]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[OJBECT_INSTANCE]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10633,2,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과를 구성하는 </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1159,7 +1132,30 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">효과를 구성하는 매개 변수 </t>
+      <t xml:space="preserve">매개 변수 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>리스트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1175,80 +1171,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>매개 변수 값 (인자 값)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ON_EXPLOSION]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ON_OBJECT_OVERLAP]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체(창) 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[INFLICT_KNOCKBACK,ON_HIT]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[OJBECT_INSTANCE]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6377,2,10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6910,2,10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[10633,2,10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과 적용 딜레이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과 적용 영역(area_type) 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영역을 따로 지정할 필요가 없는 경우에 사용 ex) 공격에 적중한 대상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AROUND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주변 대상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 주변 일정 거리 내의 대상에게 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* area_value를 간략하게 </t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">매개 변수의 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1192,93 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>v</t>
+      <t>인자 값</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[obj_id]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[창 오브젝트 인스턴스 id]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[time_offset,damage,hit_cnt,stagger]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.4,6910,2,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.8,6377,2,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill-Effect Table Schema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * 스킬 테이블과 이펙트 테이블을 매핑한 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* area_value[]를 간략하게 v[]로 표현</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기가 적중하면 효과 적용 (무기의 충돌 영역 그대로 활용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사체가 적중하면 효과 적용 (발사체의 충돌 영역 그대로 활용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>원의 중심</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(영역의 기준점)</t>
     </r>
     <r>
       <rPr>
@@ -1271,20 +1289,271 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>로 표현</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v[0] : 거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area_center_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과 적용 영역의 기준점</t>
+      <t>과 대상 사이의 거리가 반지름보다 작을 때 효과 적용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부채꼴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>중심선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(빨간 점선)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>과 중심점-대상을 이은 직선 사이의 각도가 중심각의 절반보다 작을 때 효과 적용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECTANGLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사각형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>로컬 좌표를 기준으로 대상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(점)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>과 네 꼭짓점의 좌표를 비교하여 
+대상이 사각형 내부에 있을 때 효과 적용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>영역 설명</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(area_type, area_value)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">영역을 따로(추가로) 지정할 필요가 없는 경우 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ex) 적중 대상에게 적용되는 효과, 자기 자신에게만 적용되는 효과</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area_value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area_value2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">영역 값 - v1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(아래 '영역 설명' 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">영역 값 - v2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(아래 '영역 설명' 참고)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 반지름</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 중심각의 절반</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 가로 (캐릭터 정면 기준)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 세로 (캐릭터 정면 기준)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1297,7 +1566,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1465,6 +1734,30 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1522,7 +1815,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1761,13 +2054,240 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1810,9 +2330,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1900,12 +2417,66 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1915,20 +2486,41 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1959,23 +2551,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>331692</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>116541</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>436410</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>94768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>367551</xdr:colOff>
+      <xdr:colOff>9907</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>50490</xdr:rowOff>
+      <xdr:rowOff>161311</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
+        <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA1F0770-C2C6-40C9-B3F1-13755C16CEC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C221F4-73DC-F2CC-24C9-316DE30197CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1991,14 +2583,111 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="905433" y="5737412"/>
-          <a:ext cx="2178424" cy="1054537"/>
+          <a:off x="1448781" y="6223425"/>
+          <a:ext cx="955982" cy="937400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381923</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>84523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>64393</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>177198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDDE6B3-263A-6790-277D-38F6E638EFE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1394294" y="7933123"/>
+          <a:ext cx="1064955" cy="963532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107895</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>44506</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>87653</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF991B82-7E22-65EB-FEAC-5297FAE6D9B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="684838" y="9568543"/>
+          <a:ext cx="2483868" cy="1176224"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2307,446 +2996,537 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:G86"/>
+  <dimension ref="B1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.19921875" style="4" customWidth="1"/>
     <col min="2" max="2" width="4.3984375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="5.69921875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.19921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.796875" style="45" customWidth="1"/>
-    <col min="7" max="7" width="8.69921875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="4"/>
+    <col min="6" max="6" width="61.796875" style="43" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-    </row>
-    <row r="3" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="E5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="16" t="s">
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="23">
+        <v>2</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="23">
+        <v>3</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C9" s="42">
+        <v>4</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C10" s="42">
+        <v>5</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="17" t="s">
+      <c r="E10" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C11" s="42">
+        <v>6</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C12" s="42">
+        <v>7</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C13" s="42">
+        <v>8</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C14" s="42">
+        <v>9</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="23">
+        <v>10</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B16" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="23">
+        <v>11</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+    </row>
+    <row r="19" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="3:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="67"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="45">
+        <v>1</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
+    </row>
+    <row r="23" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="45">
+        <v>2</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+    </row>
+    <row r="25" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C25" s="45">
+        <v>3</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C26" s="60"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="62"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C27" s="47">
+        <v>4</v>
+      </c>
+      <c r="D27" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="19">
-        <v>1</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="24">
-        <v>2</v>
-      </c>
-      <c r="D7" s="25" t="s">
+      <c r="E27" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C28" s="69"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C29" s="72"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="49"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C30" s="72"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="49"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C31" s="72"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="49"/>
+    </row>
+    <row r="32" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C32" s="75"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="50"/>
+    </row>
+    <row r="33" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
+    </row>
+    <row r="34" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C34" s="51">
+        <v>5</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C35" s="69"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C36" s="72"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C37" s="72"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="49"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C38" s="72"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="49"/>
+    </row>
+    <row r="39" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C39" s="75"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="50"/>
+    </row>
+    <row r="40" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C40" s="57"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="59"/>
+    </row>
+    <row r="41" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C41" s="47">
         <v>6</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="24">
-        <v>3</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C9" s="43"/>
-      <c r="D9" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C10" s="43"/>
-      <c r="D10" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C11" s="43"/>
-      <c r="D11" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C12" s="43"/>
-      <c r="D12" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C13" s="43"/>
-      <c r="D13" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C14" s="43"/>
-      <c r="D14" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C15" s="43"/>
-      <c r="D15" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C16" s="43"/>
-      <c r="D16" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="E22" s="45"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C23" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C24" s="51">
-        <v>1</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="52" t="s">
+      <c r="D41" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C25" s="1"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="45"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C26" s="51">
-        <v>2</v>
-      </c>
-      <c r="D26" s="51" t="s">
+      <c r="E41" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="F41" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="45" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C42" s="69"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C43" s="72"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C44" s="72"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="49"/>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C45" s="72"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="49"/>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C46" s="72"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="49"/>
+    </row>
+    <row r="47" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C47" s="75"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="50"/>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.4">
@@ -2782,44 +3562,18 @@
     <row r="75" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C86" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="10">
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C42:E47"/>
+    <mergeCell ref="C28:E32"/>
+    <mergeCell ref="C35:E39"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C26:F26"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C27:E32"/>
+    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2831,10 +3585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2844,86 +3598,81 @@
     <col min="4" max="4" width="12.8984375" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.59765625" style="5" customWidth="1"/>
     <col min="6" max="6" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.5" style="37" customWidth="1"/>
-    <col min="11" max="11" width="32.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15.69921875" style="8" customWidth="1"/>
-    <col min="16" max="18" width="15.69921875" style="9" customWidth="1"/>
-    <col min="19" max="20" width="15.69921875" style="8" customWidth="1"/>
-    <col min="21" max="21" width="18.69921875" style="8" customWidth="1"/>
-    <col min="22" max="25" width="15.69921875" style="9" customWidth="1"/>
-    <col min="26" max="29" width="18.69921875" style="8" customWidth="1"/>
-    <col min="30" max="16384" width="8.796875" style="4"/>
+    <col min="7" max="9" width="11.5" style="36" customWidth="1"/>
+    <col min="10" max="10" width="32.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.69921875" style="8" customWidth="1"/>
+    <col min="15" max="17" width="15.69921875" style="9" customWidth="1"/>
+    <col min="18" max="19" width="15.69921875" style="8" customWidth="1"/>
+    <col min="20" max="20" width="18.69921875" style="8" customWidth="1"/>
+    <col min="21" max="24" width="15.69921875" style="9" customWidth="1"/>
+    <col min="25" max="28" width="18.69921875" style="8" customWidth="1"/>
+    <col min="29" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="A1" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="38" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>21</v>
+      <c r="L1" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
+      <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
+      <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>71</v>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>57</v>
       </c>
       <c r="C2" s="5">
         <v>10000</v>
@@ -2932,50 +3681,50 @@
         <v>100000</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="37">
+        <v>59</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="36">
         <v>0</v>
       </c>
-      <c r="H2" s="37">
-        <v>1</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>57</v>
+      <c r="I2" s="36">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
+      <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
+      <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="A3" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>53</v>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A3" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>45</v>
       </c>
       <c r="C3" s="5">
         <v>10001</v>
@@ -2987,47 +3736,47 @@
         <v>1000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="37">
+        <v>56</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="36">
         <v>0</v>
       </c>
-      <c r="H3" s="37">
+      <c r="I3" s="36">
         <v>0</v>
       </c>
-      <c r="I3" s="37" t="s">
-        <v>36</v>
+      <c r="J3" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
+      <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
+      <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="A4" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>52</v>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A4" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>44</v>
       </c>
       <c r="C4" s="5">
         <v>10002</v>
@@ -3039,47 +3788,47 @@
         <v>1000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="37">
+        <v>55</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="36">
+        <v>8</v>
+      </c>
+      <c r="I4" s="36">
         <v>0</v>
       </c>
-      <c r="H4" s="37">
-        <v>0</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>37</v>
+      <c r="J4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+      <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+      <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="A5" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>54</v>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A5" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>46</v>
       </c>
       <c r="C5" s="5">
         <v>10003</v>
@@ -3091,47 +3840,47 @@
         <v>1000</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="H5" s="37">
+        <v>55</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="36">
+        <v>8</v>
+      </c>
+      <c r="I5" s="36">
         <v>0</v>
       </c>
-      <c r="I5" s="37" t="s">
-        <v>37</v>
+      <c r="J5" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
+      <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="A6" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>55</v>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A6" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>47</v>
       </c>
       <c r="C6" s="5">
         <v>10004</v>
@@ -3143,47 +3892,47 @@
         <v>1000</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="H6" s="37">
+        <v>55</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="36">
+        <v>8</v>
+      </c>
+      <c r="I6" s="36">
         <v>0</v>
       </c>
-      <c r="I6" s="37" t="s">
-        <v>37</v>
+      <c r="J6" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
+      <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+      <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="A7" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>62</v>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A7" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>51</v>
       </c>
       <c r="C7" s="5">
         <v>10005</v>
@@ -3192,292 +3941,289 @@
         <v>100000</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="37">
+      <c r="H7" s="36">
         <v>0</v>
       </c>
-      <c r="H7" s="37">
+      <c r="I7" s="36">
         <v>0</v>
       </c>
-      <c r="I7" s="37" t="s">
-        <v>60</v>
+      <c r="J7" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
+      <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="D8" s="5"/>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
+      <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
+      <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="D9" s="5"/>
+      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
+      <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
+      <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="D10" s="5"/>
+      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
+      <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
+      <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="D11" s="5"/>
       <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
+      <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
+      <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-    </row>
-    <row r="12" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
+      <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
+      <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="D13" s="5"/>
+      <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
+      <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
+      <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-    </row>
-    <row r="15" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="5"/>
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
+      <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
+      <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-    </row>
-    <row r="16" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
+      <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
+      <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="D17" s="5"/>
+      <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
+      <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
+      <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-    </row>
-    <row r="18" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="5"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
+      <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
+      <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
